--- a/excel/BG-ALT-S5/BG-ALT-S5.xlsx
+++ b/excel/BG-ALT-S5/BG-ALT-S5.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Desktop\bulletin-espi\backend\excel\BG-ALT-S5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Desktop\backendespi\excel\BG-ALT-S5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFC7842-9C52-4079-A221-F9108B80CC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D80B981-834C-40E4-B02A-4FA2C8FB2E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
-    <t>Code Apprenant</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>ESPI Inside</t>
+  </si>
+  <si>
+    <t>CodeApprenant</t>
   </si>
 </sst>
 </file>
@@ -705,65 +705,65 @@
   <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
@@ -776,88 +776,88 @@
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
